--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389918</v>
+        <v>439542.8206532585</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955723</v>
+        <v>5668630.558955725</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>91.10663889794492</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,7 +1031,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>140.3787069980184</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1212,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>123.6003327477366</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1467,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,7 +1502,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>39.77286532336502</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1929,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1944,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,13 +1976,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>35.74905915623028</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2251,61 +2253,61 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>62.4162677022923</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>54.62509479698523</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>38.78703662065078</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>79.73605578874087</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.17030901074568</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,13 +3641,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>1.944519418634053</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="E44" t="n">
         <v>62.4162677022923</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>121.186763950509</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4147,55 +4149,55 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X2" t="n">
-        <v>22.57944215788615</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>345.4870131375847</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4743,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>487.2836868729568</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>487.2836868729568</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>487.2836868729568</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4889,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4957,10 +4959,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5021,22 +5023,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,19 +5126,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5148,22 +5150,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>562.4161926976942</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>327.2640844659515</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C14" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D14" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E14" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F14" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>923.8825440728938</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>712.7511606524439</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>487.4018176583718</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>487.4018176583718</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V14" t="n">
-        <v>487.4018176583718</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W14" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X14" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>222.9499078454769</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
         <v>725.4530095217538</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V18" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W18" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.0774898247174</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V21" t="n">
-        <v>125.0774898247174</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W21" t="n">
-        <v>125.0774898247174</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X21" t="n">
-        <v>125.0774898247174</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.0774898247174</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>908.880292079338</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>908.880292079338</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>908.880292079338</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>908.880292079338</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>701.0287918738052</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>493.2684931088513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>58.45996797955695</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>425.5489231905453</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>425.5489231905453</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>217.6974229850125</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>99.82261360389037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6643,13 +6645,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6677,10 +6679,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6889,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501.9060370580465</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>877.8816728430684</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>877.8816728430684</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>877.8816728430684</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>877.8816728430684</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>670.1213740781145</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
         <v>829.5248650203655</v>
@@ -7138,7 +7140,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>487.4018176583718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>487.4018176583718</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.77296163243852</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C39" t="n">
-        <v>76.77296163243852</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D39" t="n">
-        <v>76.77296163243852</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E39" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7287,16 +7289,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>284.5332603973924</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>76.77296163243852</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7448,13 +7450,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
         <v>19.28114311021272</v>
@@ -7491,16 +7493,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
         <v>781.4136778972854</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>718.6442178376129</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="C44" t="n">
         <v>325.7766548071333</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>82.32787816303323</v>
-      </c>
-      <c r="D44" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7685,10 +7687,10 @@
         <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
         <v>569.2254314512334</v>
@@ -7737,13 +7739,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>396.0109115480204</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10115,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P30" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11385,7 +11387,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22613,7 +22615,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>134.8347431830299</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22881,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23100,16 +23102,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>21.46887964564732</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23121,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,10 +23278,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23355,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>26.25440111315061</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>334.4055473171627</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.0962526177847</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23817,13 +23819,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,13 +23864,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>179.1139601010482</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>197.051527993195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>52.90669720804131</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>61.53338767417523</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24209,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>277.0585344134748</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24260,10 +24262,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>145.5396338978364</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>106.2821757727331</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24643,13 +24645,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>139.1387058269376</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24743,10 +24745,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>65.33315660464301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25129,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25163,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25205,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>142.81920059726</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>86.36944326294565</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>120.0869518323295</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25476,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7557820643452</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>33.22632384066939</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25634,7 +25636,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25761,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>203.8284657848434</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>292.2667739183906</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>84.58622125296849</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879945</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="E2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="F2" t="n">
-        <v>99696.4035187993</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26439,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26451,13 +26453,13 @@
         <v>8547.111069342403</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585243</v>
+        <v>-37901.40784585242</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569535</v>
+        <v>42868.02368569538</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569535</v>
+        <v>42868.02368569529</v>
       </c>
       <c r="E6" t="n">
+        <v>76495.62368569527</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="G6" t="n">
         <v>76495.62368569532</v>
       </c>
-      <c r="F6" t="n">
-        <v>76495.62368569523</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>76495.62368569532</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76495.62368569529</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13435.68108658905</v>
+      </c>
+      <c r="K6" t="n">
         <v>76495.6236856953</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="M6" t="n">
         <v>76495.62368569529</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
         <v>76495.6236856953</v>
       </c>
-      <c r="J6" t="n">
-        <v>13435.68108658904</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76495.62368569535</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>76495.62368569532</v>
       </c>
-      <c r="M6" t="n">
-        <v>76495.6236856953</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76495.6236856953</v>
-      </c>
       <c r="P6" t="n">
-        <v>76495.62368569529</v>
+        <v>76495.62368569527</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35422,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36203,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>55.51629994036219</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38026,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38105,7 +38107,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532585</v>
+        <v>337290.5109663219</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955725</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -952,10 +952,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>15.59049435698037</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1150,58 +1150,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>83.03189205754171</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>174.3759228589013</v>
       </c>
       <c r="W15" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1864,7 +1864,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>157.4857809788191</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1976,7 +1976,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>21.0507685937734</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,55 +2329,55 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>62.4162677022923</v>
-      </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>58.52782257708668</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>90.50278177497621</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,64 +2712,64 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>68.38541766120755</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>111.5490748536004</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>200.1954532335743</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,17 +3502,17 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3675,61 +3675,61 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5621134477332</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,73 +3979,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
+        <v>208.2638363878124</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>23.90796037760316</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>23.90796037760316</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>23.90796037760316</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>746.1225867714422</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>746.1225867714422</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>746.1225867714422</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>746.1225867714422</v>
       </c>
     </row>
     <row r="7">
@@ -4743,28 +4743,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="10">
@@ -4953,13 +4953,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D11" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H11" t="n">
         <v>231.8830517671884</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5126,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>125.0774898247174</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5308,22 +5308,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5363,13 +5363,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N15" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N15" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5387,22 +5387,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V15" t="n">
-        <v>125.0774898247174</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>852.7947480059265</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>609.3459713618265</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>401.4944711562937</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="22">
@@ -5949,10 +5949,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5977,10 +5977,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,16 +6013,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
         <v>506.1786963984129</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7692914067614</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7692914067614</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>78.40015581434069</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>872.6402042227814</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="31">
@@ -6654,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>817.1412885554689</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711826</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7295,10 +7295,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7377,7 +7377,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X41" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
         <v>781.4136778972854</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>569.2254314512334</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C44" t="n">
-        <v>325.7766548071333</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D44" t="n">
-        <v>82.32787816303323</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>569.2254314512334</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X44" t="n">
-        <v>569.2254314512334</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="45">
@@ -7733,13 +7733,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
         <v>712.019119383956</v>
@@ -7760,16 +7760,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
         <v>20.03527576299844</v>
@@ -7833,16 +7833,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10196,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>198.1125443848066</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133072</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>116.0172193266289</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22840,10 +22840,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>217.2100927924449</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23038,13 +23038,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>54.31162510566892</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>297.7433466523345</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>53.98936737787663</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23387,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>334.4055473171627</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>58.42466429052394</v>
       </c>
       <c r="W15" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23752,7 +23752,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23782,13 +23782,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>15.22271800949665</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>179.1139601010482</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24065,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>62.92434029420124</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>61.53338767417523</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,7 +24107,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,10 +24262,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>188.9293852055442</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24296,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>30.8688102743284</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24341,10 +24341,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>399.0973997097602</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24463,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>259.3668408089273</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>94.22391034987707</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,13 +24976,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25061,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>5.577531969903191</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>142.81920059726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>258.8520309793366</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>127.7557820643452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25696,7 +25696,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>45.23847370169204</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="F2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.40351879945</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="L2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26450,7 +26450,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585242</v>
+        <v>-50119.41846589289</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569538</v>
+        <v>30650.01306565481</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569529</v>
+        <v>30650.0130656549</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658905</v>
+        <v>1217.670466548647</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565485</v>
       </c>
     </row>
   </sheetData>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35494,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>55.51629994036219</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.8112771299739</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337290.5109663219</v>
+        <v>429292.3595494202</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -718,7 +718,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -901,67 +901,67 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>15.59049435698037</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1305,55 +1305,55 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>41.7314554634327</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1514,10 +1514,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1663,7 +1663,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>174.3759228589013</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>21.18375537072436</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>157.4857809788191</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,70 +2086,70 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>58.52782257708668</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2566,61 +2566,61 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>90.50278177497621</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>68.38541766120755</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>111.5490748536004</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,70 +2949,70 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>152.2207240410305</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>200.1954532335743</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,43 +3201,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -3559,13 +3559,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>90.38893773807641</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>187.5621134477332</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>208.2638363878124</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W2" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X2" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4532163200711</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V3" t="n">
-        <v>353.3011080883284</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W3" t="n">
-        <v>109.8523314442283</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X3" t="n">
-        <v>109.8523314442283</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>527.5764290961142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W5" t="n">
-        <v>527.5764290961142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X5" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>746.1225867714422</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>746.1225867714422</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>746.1225867714422</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>746.1225867714422</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4767,10 +4767,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>517.4848137278872</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X11" t="n">
-        <v>517.4848137278872</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y11" t="n">
-        <v>517.4848137278872</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5129,7 +5129,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
         <v>656.0584510084244</v>
@@ -5150,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5187,13 +5187,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E14" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5363,19 +5363,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U15" t="n">
-        <v>562.4161926976942</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V15" t="n">
-        <v>386.2788968806221</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
-        <v>386.2788968806221</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>386.2788968806221</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
         <v>19.28114311021272</v>
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,16 +5536,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
         <v>506.1786963984129</v>
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N18" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>851.8101010141643</v>
-      </c>
-      <c r="O18" t="n">
-        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5712,13 +5712,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="C23" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="D23" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>191.7692914067614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>191.7692914067614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>78.40015581434069</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>872.6402042227814</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>644.4165859591706</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>409.2644777274278</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>165.8157010833278</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>165.8157010833278</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6417,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>587.3248651012614</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>587.3248651012614</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>649.1947276839472</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="C30" t="n">
-        <v>474.7416984028202</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="D30" t="n">
-        <v>325.807288741569</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,13 +6548,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X30" t="n">
-        <v>649.1947276839472</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y30" t="n">
-        <v>649.1947276839472</v>
+        <v>109.8523314442283</v>
       </c>
     </row>
     <row r="31">
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>158.0119685275972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.0119685275972</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V35" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W35" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X35" t="n">
-        <v>122.6530896684844</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7080,10 +7080,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V38" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7359,22 +7359,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.23626279480629</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C41" t="n">
-        <v>72.23626279480629</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V41" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W41" t="n">
-        <v>559.1338160830064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X41" t="n">
-        <v>315.6850394389064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.6850394389064</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
         <v>781.4136778972854</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>471.2443511720524</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>485.167420504237</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C44" t="n">
-        <v>485.167420504237</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D44" t="n">
-        <v>485.167420504237</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E44" t="n">
-        <v>485.167420504237</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F44" t="n">
-        <v>241.7186438601369</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W44" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X44" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y44" t="n">
-        <v>485.167420504237</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M45" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7760,16 +7760,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
         <v>20.03527576299844</v>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N12" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,16 +10196,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>98.14696326317221</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,7 +22606,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>305.9032316402336</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.0172193266289</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>394.1189821444107</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22834,22 +22834,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>217.2100927924449</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>54.31162510566892</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>297.7433466523345</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>53.98936737787663</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23390,7 +23390,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>58.42466429052394</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>230.1618975371121</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>15.22271800949665</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>180.9561245870265</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24016,28 +24016,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>307.3148329761767</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24065,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>62.92434029420124</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,16 +24259,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24296,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>30.8688102743284</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24338,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>399.0973997097602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>109.6619469198454</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>259.3668408089273</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>67.97960400472553</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>94.22391034987707</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,10 +24979,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25001,19 +25001,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>5.424356414370465</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25046,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>5.577531969903191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>316.4871080036351</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="36">
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>115.2702034285012</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>258.8520309793366</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>45.23847370169204</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>207.0389011273226</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879943</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="F2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879939</v>
@@ -26441,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50119.41846589289</v>
+        <v>-39123.20890785647</v>
       </c>
       <c r="C6" t="n">
-        <v>30650.01306565481</v>
+        <v>41646.22262369128</v>
       </c>
       <c r="D6" t="n">
-        <v>30650.0130656549</v>
+        <v>41646.22262369129</v>
       </c>
       <c r="E6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.8226236913</v>
       </c>
       <c r="F6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="G6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="H6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="I6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="J6" t="n">
-        <v>1217.670466548647</v>
+        <v>12213.88002458499</v>
       </c>
       <c r="K6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369122</v>
       </c>
       <c r="L6" t="n">
-        <v>64277.61306565485</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="M6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="N6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="O6" t="n">
-        <v>64277.61306565485</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="P6" t="n">
-        <v>64277.61306565485</v>
+        <v>75273.82262369127</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35497,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="P18" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
